--- a/src/main/resources/womenRevolveDress.xlsx
+++ b/src/main/resources/womenRevolveDress.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="170">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="216">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>DRESSES</t>
+    <t>women_revolve_dress_1</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD845_V1.jpg</t>
@@ -50,6 +50,9 @@
     <t>https://www.revolve.com/for-love-lemons-x-revolve-bustier-gown-in-black/dp/FORL-WD845/?d=Womens&amp;vn=true&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_dress_2</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD344_V1.jpg</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>https://www.revolve.com/elliatt-astrid-dress-in-multi/dp/ELLI-WD344/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_dress_3</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD346_V1.jpg</t>
   </si>
   <si>
@@ -77,6 +83,42 @@
     <t>https://www.revolve.com/elliatt-cassini-dress-in-blue/dp/ELLI-WD346/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_dress_4</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD42_V1.jpg</t>
+  </si>
+  <si>
+    <t>Katie May</t>
+  </si>
+  <si>
+    <t>Surreal Gown</t>
+  </si>
+  <si>
+    <t>CA$ 339.46</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/katie-may-surreal-gown-in-black/dp/KATR-WD42/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_5</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD867_V1.jpg</t>
+  </si>
+  <si>
+    <t>Samira Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 310.83</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/for-love-lemons-samira-mini-dress-in-white/dp/FORL-WD867/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_6</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD438_V1.jpg</t>
   </si>
   <si>
@@ -89,22 +131,25 @@
     <t>CA$ 264.37</t>
   </si>
   <si>
-    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_7</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD193_V1.jpg</t>
   </si>
   <si>
-    <t>Katie May</t>
-  </si>
-  <si>
     <t>Chasing Dawn Gown</t>
   </si>
   <si>
     <t>CA$ 454.87</t>
   </si>
   <si>
-    <t>https://www.revolve.com/katie-may-chasing-dawn-gown-in-pink-daisy/dp/KATR-WD193/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/katie-may-chasing-dawn-gown-in-pink-daisy/dp/KATR-WD193/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_8</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2408_V1.jpg</t>
@@ -119,7 +164,10 @@
     <t>CA$ 365.31</t>
   </si>
   <si>
-    <t>https://www.revolve.com/nbd-june-gown-in-baby-blue/dp/NBDR-WD2408/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/nbd-june-gown-in-baby-blue/dp/NBDR-WD2408/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_9</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD341_V1.jpg</t>
@@ -134,7 +182,10 @@
     <t>CA$ 240.33</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-cayla-side-drape-gown-in-black/dp/NKAM-WD341/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/norma-kamali-cayla-side-drape-gown-in-black/dp/NKAM-WD341/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_10</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD219_V1.jpg</t>
@@ -146,19 +197,25 @@
     <t>CA$ 344.48</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-diana-gown-in-celadon/dp/NKAM-WD219/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD42_V1.jpg</t>
-  </si>
-  <si>
-    <t>Surreal Gown</t>
-  </si>
-  <si>
-    <t>CA$ 339.46</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/katie-may-surreal-gown-in-black/dp/KATR-WD42/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/norma-kamali-diana-gown-in-celadon/dp/NKAM-WD219/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD641_V1.jpg</t>
+  </si>
+  <si>
+    <t>Paula Pullover Coverup</t>
+  </si>
+  <si>
+    <t>CA$ 246.74</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-paula-pullover-coverup-in-bubblegum-pink/dp/SHOW-WD641/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_12</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD395_V1.jpg</t>
@@ -170,7 +227,28 @@
     <t>CA$ 331.66</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-x-revolve-gwenyth-dress-in-orchid/dp/ELLI-WD395/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/elliatt-x-revolve-gwenyth-dress-in-orchid/dp/ELLI-WD395/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD848_V1.jpg</t>
+  </si>
+  <si>
+    <t>Amanda Uprichard</t>
+  </si>
+  <si>
+    <t>Queen Gown</t>
+  </si>
+  <si>
+    <t>CA$ 353.03</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-queen-gown-in-black/dp/AMAN-WD848/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_14</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WD104_V1.jpg</t>
@@ -185,22 +263,169 @@
     <t>CA$ 253.15</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lacademie-cloudline-dress-in-indigo-stripe/dp/LCDE-WD104/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD867_V1.jpg</t>
-  </si>
-  <si>
-    <t>Samira Mini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 310.83</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/for-love-lemons-samira-mini-dress-in-white/dp/FORL-WD867/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WD67_V1.jpg</t>
+    <t>https://www.revolve.com/lacademie-cloudline-dress-in-indigo-stripe/dp/LCDE-WD104/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD230_V1.jpg</t>
+  </si>
+  <si>
+    <t>x REVOLVE Strapless Fishtail Gown</t>
+  </si>
+  <si>
+    <t>CA$ 424.59</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-x-revolve-strapless-fishtail-gown-in-orchid-pink/dp/NKAM-WD230/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD171_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bronx and Banco</t>
+  </si>
+  <si>
+    <t>Megan Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 624.87</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bronx-and-banco-megan-mini-dress-in-blanc/dp/BROR-WD171/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_17</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WD96_V1.jpg</t>
+  </si>
+  <si>
+    <t>SNDYS</t>
+  </si>
+  <si>
+    <t>x REVOLVE Angel Strapless Midi Dress</t>
+  </si>
+  <si>
+    <t>CA$ 112.43</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/sndys-x-revolve-angel-strapless-midi-dress-in-olive/dp/SDYS-WD96/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_18</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WD287_V1.jpg</t>
+  </si>
+  <si>
+    <t>The Janeiro Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 317.24</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lacademie-the-janeiro-mini-dress-in-lime/dp/LCDE-WD287/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD433_V1.jpg</t>
+  </si>
+  <si>
+    <t>Walter Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 360.50</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-walter-mini-dress-in-candy-pink/dp/NKAM-WD433/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LSPA-WD74_V1.jpg</t>
+  </si>
+  <si>
+    <t>LSPACE</t>
+  </si>
+  <si>
+    <t>Barcelona Dress</t>
+  </si>
+  <si>
+    <t>CA$ 257.96</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lspace-barcelona-dress-in-cream/dp/LSPA-WD74/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LSPA-WD109_V1.jpg</t>
+  </si>
+  <si>
+    <t>Topanga Dress</t>
+  </si>
+  <si>
+    <t>CA$ 211.49</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lspace-topanga-dress-in-cornflower/dp/LSPA-WD109/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD942_V1.jpg</t>
+  </si>
+  <si>
+    <t>Ace Dress</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-ace-dress-in-pacific/dp/AMAN-WD942/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD642_V1.jpg</t>
+  </si>
+  <si>
+    <t>Romance Ruffle Dress</t>
+  </si>
+  <si>
+    <t>CA$ 397.35</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-romance-ruffle-dress-in-ivory-botanical-floral/dp/SHOW-WD642/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2358_V1.jpg</t>
+  </si>
+  <si>
+    <t>Dream Gown</t>
+  </si>
+  <si>
+    <t>CA$ 301.22</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nbd-dream-gown-in-black/dp/NBDR-WD2358/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WD68_V1.jpg</t>
   </si>
   <si>
     <t>Helsa</t>
@@ -212,130 +437,115 @@
     <t>CA$ 413.37</t>
   </si>
   <si>
-    <t>https://www.revolve.com/helsa-faille-halter-mini-dress-in-black/dp/HLSA-WD67/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LCDE-WD287_V1.jpg</t>
-  </si>
-  <si>
-    <t>The Janeiro Mini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 317.24</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lacademie-the-janeiro-mini-dress-in-lime/dp/LCDE-WD287/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD848_V1.jpg</t>
-  </si>
-  <si>
-    <t>Amanda Uprichard</t>
-  </si>
-  <si>
-    <t>Queen Gown</t>
-  </si>
-  <si>
-    <t>CA$ 353.03</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-queen-gown-in-black/dp/AMAN-WD848/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD171_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bronx and Banco</t>
-  </si>
-  <si>
-    <t>Megan Mini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 624.87</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bronx-and-banco-megan-mini-dress-in-blanc/dp/BROR-WD171/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-queen-gown-in-black/dp/AMAN-WD848/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bronx-and-banco-megan-mini-dress-in-blanc/dp/BROR-WD171/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LSPA-WD74_V1.jpg</t>
-  </si>
-  <si>
-    <t>LSPACE</t>
-  </si>
-  <si>
-    <t>Barcelona Dress</t>
-  </si>
-  <si>
-    <t>CA$ 257.96</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lspace-barcelona-dress-in-cream/dp/LSPA-WD74/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD433_V1.jpg</t>
-  </si>
-  <si>
-    <t>Walter Mini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 360.50</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-walter-mini-dress-in-candy-pink/dp/NKAM-WD433/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LSPA-WD109_V1.jpg</t>
-  </si>
-  <si>
-    <t>Topanga Dress</t>
-  </si>
-  <si>
-    <t>CA$ 211.49</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lspace-topanga-dress-in-cornflower/dp/LSPA-WD109/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WD96_V1.jpg</t>
-  </si>
-  <si>
-    <t>SNDYS</t>
-  </si>
-  <si>
-    <t>x REVOLVE Angel Strapless Midi Dress</t>
-  </si>
-  <si>
-    <t>CA$ 112.43</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/sndys-x-revolve-angel-strapless-midi-dress-in-olive/dp/SDYS-WD96/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD942_V1.jpg</t>
-  </si>
-  <si>
-    <t>Ace Dress</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-ace-dress-in-pacific/dp/AMAN-WD942/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD642_V1.jpg</t>
-  </si>
-  <si>
-    <t>Romance Ruffle Dress</t>
-  </si>
-  <si>
-    <t>CA$ 397.35</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-romance-ruffle-dress-in-ivory-botanical-floral/dp/SHOW-WD642/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/helsa-faille-halter-mini-dress-in-white/dp/HLSA-WD68/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD221_V1.jpg</t>
+  </si>
+  <si>
+    <t>Times Dress</t>
+  </si>
+  <si>
+    <t>CA$ 447.02</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-times-dress-in-blue-multi/dp/ELLI-WD221/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD564_V1.jpg</t>
+  </si>
+  <si>
+    <t>Jasmine Halter Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 200.96</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-jasmine-halter-mini-dress-in-pink-luxe/dp/SHOW-WD564/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2195_V1.jpg</t>
+  </si>
+  <si>
+    <t>Thom Midi Dress</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nbd-thom-midi-dress-in-black/dp/NBDR-WD2195/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD271_V1.jpg</t>
+  </si>
+  <si>
+    <t>Halter Turtle Side Slit Gown</t>
+  </si>
+  <si>
+    <t>CA$ 232.32</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-halter-turtle-side-slit-gown-in-pewter/dp/NKAM-WD271/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD574_V1.jpg</t>
+  </si>
+  <si>
+    <t>Rosalind Dress</t>
+  </si>
+  <si>
+    <t>CA$ 592.82</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-rosalind-dress-in-multi/dp/ELLI-WD574/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LIDR-WD3_V1.jpg</t>
+  </si>
+  <si>
+    <t>L'IDEE</t>
+  </si>
+  <si>
+    <t>Renaissance Split Gown</t>
+  </si>
+  <si>
+    <t>CA$ 632.88</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lidee-renaissance-split-gown-in-light-pink/dp/LIDR-WD3/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD1254_V1.jpg</t>
+  </si>
+  <si>
+    <t>Rosalyn Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 458.24</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/for-love-lemons-rosalyn-mini-dress-in-blue/dp/FORL-WD1254/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_33</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD493_V1.jpg</t>
@@ -347,40 +557,28 @@
     <t>CA$ 382.93</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-elder-dress-in-white/dp/ELLI-WD493/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2195_V1.jpg</t>
-  </si>
-  <si>
-    <t>Thom Midi Dress</t>
-  </si>
-  <si>
-    <t>CA$ 301.22</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nbd-thom-midi-dress-in-black/dp/NBDR-WD2195/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2358_V1.jpg</t>
-  </si>
-  <si>
-    <t>Dream Gown</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nbd-dream-gown-in-black/dp/NBDR-WD2358/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD564_V1.jpg</t>
-  </si>
-  <si>
-    <t>Jasmine Halter Mini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 200.96</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-jasmine-halter-mini-dress-in-pink-luxe/dp/SHOW-WD564/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/elliatt-elder-dress-in-white/dp/ELLI-WD493/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MELR-WD315_V1.jpg</t>
+  </si>
+  <si>
+    <t>Michael Costello</t>
+  </si>
+  <si>
+    <t>x REVOLVE India Midi Dress</t>
+  </si>
+  <si>
+    <t>CA$ 349.29</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/michael-costello-x-revolve-india-midi-dress-in-periwinkle/dp/MELR-WD315/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_35</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD262_V1.jpg</t>
@@ -389,103 +587,67 @@
     <t>CA$ 634.48</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bronx-and-banco-megan-mini-dress-in-rose/dp/BROR-WD262/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD221_V1.jpg</t>
-  </si>
-  <si>
-    <t>Times Dress</t>
-  </si>
-  <si>
-    <t>CA$ 447.02</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-times-dress-in-blue-multi/dp/ELLI-WD221/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD887_V1.jpg</t>
-  </si>
-  <si>
-    <t>Rosalyn Mini Dress</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/for-love-lemons-rosalyn-mini-dress-in-green/dp/FORL-WD887/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD574_V1.jpg</t>
-  </si>
-  <si>
-    <t>Rosalind Dress</t>
-  </si>
-  <si>
-    <t>CA$ 592.82</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-rosalind-dress-in-multi/dp/ELLI-WD574/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MELR-WD13_V1.jpg</t>
-  </si>
-  <si>
-    <t>Michael Costello</t>
-  </si>
-  <si>
-    <t>x REVOLVE Mr. Gibson Mini Dress</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/michael-costello-x-revolve-mr-gibson-mini-dress-in-black/dp/MELR-WD13/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LIDR-WD3_V1.jpg</t>
-  </si>
-  <si>
-    <t>L'IDEE</t>
-  </si>
-  <si>
-    <t>Renaissance Split Gown</t>
-  </si>
-  <si>
-    <t>CA$ 632.88</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lidee-renaissance-split-gown-in-light-pink/dp/LIDR-WD3/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ASTR-WD523_V1.jpg</t>
-  </si>
-  <si>
-    <t>ASTR the Label</t>
-  </si>
-  <si>
-    <t>Revery Dress</t>
-  </si>
-  <si>
-    <t>CA$ 285.20</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/astr-the-label-revery-dress-in-cream-pink-floral/dp/ASTR-WD523/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MELR-WD315_V1.jpg</t>
-  </si>
-  <si>
-    <t>x REVOLVE India Midi Dress</t>
-  </si>
-  <si>
-    <t>CA$ 349.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/michael-costello-x-revolve-india-midi-dress-in-periwinkle/dp/MELR-WD315/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD532_V1.jpg</t>
-  </si>
-  <si>
-    <t>Strapless Bill Pickleball With Bow</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-strapless-bill-pickleball-with-bow-in-tiger-red-snow-white/dp/NKAM-WD532/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/bronx-and-banco-megan-mini-dress-in-rose/dp/BROR-WD262/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_36</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/COTR-WD40_V1.jpg</t>
+  </si>
+  <si>
+    <t>COTTON CITIZEN</t>
+  </si>
+  <si>
+    <t>Tokyo Short Sleeve Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 196.88</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/cotton-citizen-tokyo-short-sleeve-mini-dress-in-dark-tan/dp/COTR-WD40/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD186_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/katie-may-surreal-gown-in-lilac/dp/KATR-WD186/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_38</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD490_V1.jpg</t>
+  </si>
+  <si>
+    <t>Dunmore Dress</t>
+  </si>
+  <si>
+    <t>CA$ 448.62</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-dunmore-dress-in-multi/dp/ELLI-WD490/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_39</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1193_V1.jpg</t>
+  </si>
+  <si>
+    <t>X REVOLVE Samba Gown</t>
+  </si>
+  <si>
+    <t>CA$ 435.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-x-revolve-samba-gown-in-dark-green/dp/AMAN-WD1193/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_dress_40</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2879_V1.jpg</t>
@@ -497,31 +659,7 @@
     <t>CA$ 557.58</t>
   </si>
   <si>
-    <t>https://www.revolve.com/nbd-divya-maxi-dress-in-patchwork-multi/dp/NBDR-WD2879/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD490_V1.jpg</t>
-  </si>
-  <si>
-    <t>Dunmore Dress</t>
-  </si>
-  <si>
-    <t>CA$ 448.62</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-dunmore-dress-in-multi/dp/ELLI-WD490/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD271_V1.jpg</t>
-  </si>
-  <si>
-    <t>Halter Turtle Side Slit Gown</t>
-  </si>
-  <si>
-    <t>CA$ 232.32</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-halter-turtle-side-slit-gown-in-pewter/dp/NKAM-WD271/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/nbd-divya-maxi-dress-in-patchwork-multi/dp/NBDR-WD2879/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -614,782 +752,782 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>125</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>132</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>136</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>140</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>154</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>157</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>165</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>169</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/womenRevolveDress.xlsx
+++ b/src/main/resources/womenRevolveDress.xlsx
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>women_revolve_dress_1</t>
+    <t>women_revolvedress_1</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD344_V1.jpg</t>
@@ -50,7 +50,124 @@
     <t>https://www.revolve.com/elliatt-astrid-dress-in-multi/dp/ELLI-WD344/?d=Womens&amp;vn=true&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>women_revolve_dress_2</t>
+    <t>women_revolvedress_2</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD845_V1.jpg</t>
+  </si>
+  <si>
+    <t>For Love &amp; Lemons</t>
+  </si>
+  <si>
+    <t>X REVOLVE Bustier Gown</t>
+  </si>
+  <si>
+    <t>CA$ 575.20</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/for-love-lemons-x-revolve-bustier-gown-in-black/dp/FORL-WD845/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_3</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD395_V1.jpg</t>
+  </si>
+  <si>
+    <t>X REVOLVE Gwenyth Dress</t>
+  </si>
+  <si>
+    <t>CA$ 331.66</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-x-revolve-gwenyth-dress-in-orchid/dp/ELLI-WD395/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_4</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD346_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cassini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 302.82</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-cassini-dress-in-blue/dp/ELLI-WD346/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_5</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SLEE-WD174_V1.jpg</t>
+  </si>
+  <si>
+    <t>SAU LEE</t>
+  </si>
+  <si>
+    <t>Preston Dress</t>
+  </si>
+  <si>
+    <t>CA$ 761.06</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/sau-lee-preston-dress-in-egyptian-blue/dp/SLEE-WD174/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_6</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD848_V1.jpg</t>
+  </si>
+  <si>
+    <t>Amanda Uprichard</t>
+  </si>
+  <si>
+    <t>Queen Gown</t>
+  </si>
+  <si>
+    <t>CA$ 353.03</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-queen-gown-in-black/dp/AMAN-WD848/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_7</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD42_V1.jpg</t>
+  </si>
+  <si>
+    <t>Katie May</t>
+  </si>
+  <si>
+    <t>Surreal Gown</t>
+  </si>
+  <si>
+    <t>CA$ 339.46</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/katie-may-surreal-gown-in-black/dp/KATR-WD42/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD193_V1.jpg</t>
+  </si>
+  <si>
+    <t>Chasing Dawn Gown</t>
+  </si>
+  <si>
+    <t>CA$ 454.87</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/katie-may-chasing-dawn-gown-in-pink-daisy/dp/KATR-WD193/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_9</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2408_V1.jpg</t>
@@ -65,127 +182,10 @@
     <t>CA$ 365.31</t>
   </si>
   <si>
-    <t>https://www.revolve.com/nbd-june-gown-in-baby-blue/dp/NBDR-WD2408/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_3</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD845_V1.jpg</t>
-  </si>
-  <si>
-    <t>For Love &amp; Lemons</t>
-  </si>
-  <si>
-    <t>X REVOLVE Bustier Gown</t>
-  </si>
-  <si>
-    <t>CA$ 575.20</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/for-love-lemons-x-revolve-bustier-gown-in-black/dp/FORL-WD845/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_4</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD395_V1.jpg</t>
-  </si>
-  <si>
-    <t>X REVOLVE Gwenyth Dress</t>
-  </si>
-  <si>
-    <t>CA$ 331.66</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-x-revolve-gwenyth-dress-in-orchid/dp/ELLI-WD395/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_5</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD346_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cassini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 302.82</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-cassini-dress-in-blue/dp/ELLI-WD346/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_6</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD848_V1.jpg</t>
-  </si>
-  <si>
-    <t>Amanda Uprichard</t>
-  </si>
-  <si>
-    <t>Queen Gown</t>
-  </si>
-  <si>
-    <t>CA$ 353.03</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-queen-gown-in-black/dp/AMAN-WD848/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_7</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD42_V1.jpg</t>
-  </si>
-  <si>
-    <t>Katie May</t>
-  </si>
-  <si>
-    <t>Surreal Gown</t>
-  </si>
-  <si>
-    <t>CA$ 339.46</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/katie-may-surreal-gown-in-black/dp/KATR-WD42/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_8</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SLEE-WD174_V1.jpg</t>
-  </si>
-  <si>
-    <t>SAU LEE</t>
-  </si>
-  <si>
-    <t>Preston Dress</t>
-  </si>
-  <si>
-    <t>CA$ 761.06</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/sau-lee-preston-dress-in-egyptian-blue/dp/SLEE-WD174/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_9</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD193_V1.jpg</t>
-  </si>
-  <si>
-    <t>Chasing Dawn Gown</t>
-  </si>
-  <si>
-    <t>CA$ 454.87</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/katie-may-chasing-dawn-gown-in-pink-daisy/dp/KATR-WD193/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_10</t>
+    <t>https://www.revolve.com/nbd-june-gown-in-baby-blue/dp/NBDR-WD2408/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_10</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD581_V1.jpg</t>
@@ -203,55 +203,55 @@
     <t>https://www.revolve.com/bronx-and-banco-jasmine-mini-dress-in-white-floral/dp/BROR-WD581/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>women_revolve_dress_11</t>
+    <t>women_revolvedress_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD867_V1.jpg</t>
+  </si>
+  <si>
+    <t>Samira Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 310.83</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/for-love-lemons-samira-mini-dress-in-white/dp/FORL-WD867/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD219_V1.jpg</t>
+  </si>
+  <si>
+    <t>Norma Kamali</t>
+  </si>
+  <si>
+    <t>Diana Gown</t>
+  </si>
+  <si>
+    <t>CA$ 344.48</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-diana-gown-in-celadon/dp/NKAM-WD219/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_13</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD230_V1.jpg</t>
   </si>
   <si>
-    <t>Norma Kamali</t>
-  </si>
-  <si>
     <t>x REVOLVE Strapless Fishtail Gown</t>
   </si>
   <si>
     <t>CA$ 424.59</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-x-revolve-strapless-fishtail-gown-in-orchid-pink/dp/NKAM-WD230/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_12</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD867_V1.jpg</t>
-  </si>
-  <si>
-    <t>Samira Mini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 310.83</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/for-love-lemons-samira-mini-dress-in-white/dp/FORL-WD867/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_13</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD219_V1.jpg</t>
-  </si>
-  <si>
-    <t>Diana Gown</t>
-  </si>
-  <si>
-    <t>CA$ 344.48</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-diana-gown-in-celadon/dp/NKAM-WD219/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_14</t>
+    <t>https://www.revolve.com/norma-kamali-x-revolve-strapless-fishtail-gown-in-orchid-pink/dp/NKAM-WD230/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_14</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LIDR-WD3_V1.jpg</t>
@@ -269,7 +269,22 @@
     <t>https://www.revolve.com/lidee-renaissance-split-gown-in-light-pink/dp/LIDR-WD3/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
-    <t>women_revolve_dress_15</t>
+    <t>women_revolvedress_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1200_V1.jpg</t>
+  </si>
+  <si>
+    <t>Mezcal Dress</t>
+  </si>
+  <si>
+    <t>CA$ 323.16</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-mezcal-dress-in-ivory/dp/AMAN-WD1200/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_16</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD574_V1.jpg</t>
@@ -281,25 +296,25 @@
     <t>CA$ 592.82</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-rosalind-dress-in-multi/dp/ELLI-WD574/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_16</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1200_V1.jpg</t>
-  </si>
-  <si>
-    <t>Mezcal Dress</t>
-  </si>
-  <si>
-    <t>CA$ 323.16</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-mezcal-dress-in-ivory/dp/AMAN-WD1200/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_17</t>
+    <t>https://www.revolve.com/elliatt-rosalind-dress-in-multi/dp/ELLI-WD574/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_17</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD341_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cayla Side Drape Gown</t>
+  </si>
+  <si>
+    <t>CA$ 240.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-cayla-side-drape-gown-in-black/dp/NKAM-WD341/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_18</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD630_V1.jpg</t>
@@ -311,10 +326,145 @@
     <t>CA$ 1,249.74</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bronx-and-banco-jasmine-maxi-dress-in-gold-floral/dp/BROR-WD630/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_18</t>
+    <t>https://www.revolve.com/bronx-and-banco-jasmine-maxi-dress-in-gold-floral/dp/BROR-WD630/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD438_V1.jpg</t>
+  </si>
+  <si>
+    <t>Show Me Your Mumu</t>
+  </si>
+  <si>
+    <t>Outlaw Dress</t>
+  </si>
+  <si>
+    <t>CA$ 264.37</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD309_V1.jpg</t>
+  </si>
+  <si>
+    <t>Florence Strapless Gown</t>
+  </si>
+  <si>
+    <t>CA$ 1,201.67</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bronx-and-banco-florence-strapless-gown-in-gold/dp/BROR-WD309/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SLEE-WD196_V1.jpg</t>
+  </si>
+  <si>
+    <t>Priyanka Dress</t>
+  </si>
+  <si>
+    <t>CA$ 793.10</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/sau-lee-priyanka-dress-in-hot-pink/dp/SLEE-WD196/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD221_V1.jpg</t>
+  </si>
+  <si>
+    <t>Times Dress</t>
+  </si>
+  <si>
+    <t>CA$ 447.02</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-times-dress-in-blue-multi/dp/ELLI-WD221/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1949_V1.jpg</t>
+  </si>
+  <si>
+    <t>X REVOLVE Sabine Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 381.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-x-revolve-sabine-mini-dress-in-crimson/dp/AMAN-WD1949/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1193_V1.jpg</t>
+  </si>
+  <si>
+    <t>X REVOLVE Samba Gown</t>
+  </si>
+  <si>
+    <t>CA$ 435.86</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-x-revolve-samba-gown-in-dark-green/dp/AMAN-WD1193/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD103_V1.jpg</t>
+  </si>
+  <si>
+    <t>Damn Gina Dress</t>
+  </si>
+  <si>
+    <t>CA$ 400.56</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/katie-may-damn-gina-dress-in-electric-pink/dp/KATR-WD103/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD21_V1.jpg</t>
+  </si>
+  <si>
+    <t>Mary Kate Gown</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/katie-may-mary-kate-gown-in-black/dp/KATR-WD21/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD228_V1.jpg</t>
+  </si>
+  <si>
+    <t>X REVOLVE V Neck Rectangle Gown</t>
+  </si>
+  <si>
+    <t>CA$ 280.39</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-x-revolve-v-neck-rectangle-gown-in-black/dp/NKAM-WD228/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_28</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD262_V1.jpg</t>
@@ -326,148 +476,118 @@
     <t>CA$ 634.48</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bronx-and-banco-megan-mini-dress-in-rose/dp/BROR-WD262/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_19</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD341_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cayla Side Drape Gown</t>
-  </si>
-  <si>
-    <t>CA$ 240.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-cayla-side-drape-gown-in-black/dp/NKAM-WD341/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_20</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD309_V1.jpg</t>
-  </si>
-  <si>
-    <t>Florence Strapless Gown</t>
-  </si>
-  <si>
-    <t>CA$ 1,201.67</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bronx-and-banco-florence-strapless-gown-in-gold/dp/BROR-WD309/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_21</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SLEE-WD196_V1.jpg</t>
-  </si>
-  <si>
-    <t>Priyanka Dress</t>
-  </si>
-  <si>
-    <t>CA$ 793.10</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/sau-lee-priyanka-dress-in-hot-pink/dp/SLEE-WD196/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_22</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD438_V1.jpg</t>
-  </si>
-  <si>
-    <t>Show Me Your Mumu</t>
-  </si>
-  <si>
-    <t>Outlaw Dress</t>
-  </si>
-  <si>
-    <t>CA$ 264.37</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_23</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD221_V1.jpg</t>
-  </si>
-  <si>
-    <t>Times Dress</t>
-  </si>
-  <si>
-    <t>CA$ 447.02</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-times-dress-in-blue-multi/dp/ELLI-WD221/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_24</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1949_V1.jpg</t>
-  </si>
-  <si>
-    <t>X REVOLVE Sabine Mini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 381.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-x-revolve-sabine-mini-dress-in-crimson/dp/AMAN-WD1949/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_25</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1193_V1.jpg</t>
-  </si>
-  <si>
-    <t>X REVOLVE Samba Gown</t>
-  </si>
-  <si>
-    <t>CA$ 435.86</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-x-revolve-samba-gown-in-dark-green/dp/AMAN-WD1193/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_26</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD103_V1.jpg</t>
-  </si>
-  <si>
-    <t>Damn Gina Dress</t>
-  </si>
-  <si>
-    <t>CA$ 400.56</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/katie-may-damn-gina-dress-in-electric-pink/dp/KATR-WD103/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_27</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD228_V1.jpg</t>
-  </si>
-  <si>
-    <t>X REVOLVE V Neck Rectangle Gown</t>
-  </si>
-  <si>
-    <t>CA$ 280.39</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-x-revolve-v-neck-rectangle-gown-in-black/dp/NKAM-WD228/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_28</t>
+    <t>https://www.revolve.com/bronx-and-banco-megan-mini-dress-in-rose/dp/BROR-WD262/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MELR-WD315_V1.jpg</t>
+  </si>
+  <si>
+    <t>Michael Costello</t>
+  </si>
+  <si>
+    <t>x REVOLVE India Midi Dress</t>
+  </si>
+  <si>
+    <t>CA$ 349.29</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/michael-costello-x-revolve-india-midi-dress-in-periwinkle/dp/MELR-WD315/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD555_V1.jpg</t>
+  </si>
+  <si>
+    <t>x REVOLVE April Dress</t>
+  </si>
+  <si>
+    <t>CA$ 358.90</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-x-revolve-april-dress-in-ivory/dp/ELLI-WD555/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD918_V1.jpg</t>
+  </si>
+  <si>
+    <t>Mckinnon Dress</t>
+  </si>
+  <si>
+    <t>CA$ 293.29</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-mckinnon-dress-in-white/dp/AMAN-WD918/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD186_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/katie-may-surreal-gown-in-lilac/dp/KATR-WD186/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WD85_V1.jpg</t>
+  </si>
+  <si>
+    <t>Camila Coelho</t>
+  </si>
+  <si>
+    <t>Reyna Maxi Dress</t>
+  </si>
+  <si>
+    <t>CA$ 352.49</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/camila-coelho-reyna-maxi-dress-in-pearl-white/dp/COEL-WD85/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WD96_V1.jpg</t>
+  </si>
+  <si>
+    <t>SNDYS</t>
+  </si>
+  <si>
+    <t>x REVOLVE Angel Strapless Midi Dress</t>
+  </si>
+  <si>
+    <t>CA$ 112.43</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/sndys-x-revolve-angel-strapless-midi-dress-in-olive/dp/SDYS-WD96/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD493_V1.jpg</t>
+  </si>
+  <si>
+    <t>Elder Dress</t>
+  </si>
+  <si>
+    <t>CA$ 382.93</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-elder-dress-in-white/dp/ELLI-WD493/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD662_V1.jpg</t>
@@ -479,118 +599,10 @@
     <t>CA$ 656.91</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-zayla-mini-dress-in-ivory-nude/dp/ELLI-WD662/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_29</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MELR-WD315_V1.jpg</t>
-  </si>
-  <si>
-    <t>Michael Costello</t>
-  </si>
-  <si>
-    <t>x REVOLVE India Midi Dress</t>
-  </si>
-  <si>
-    <t>CA$ 349.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/michael-costello-x-revolve-india-midi-dress-in-periwinkle/dp/MELR-WD315/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_30</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD555_V1.jpg</t>
-  </si>
-  <si>
-    <t>x REVOLVE April Dress</t>
-  </si>
-  <si>
-    <t>CA$ 358.90</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-x-revolve-april-dress-in-ivory/dp/ELLI-WD555/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_31</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD918_V1.jpg</t>
-  </si>
-  <si>
-    <t>Mckinnon Dress</t>
-  </si>
-  <si>
-    <t>CA$ 293.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-mckinnon-dress-in-white/dp/AMAN-WD918/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_32</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD186_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/katie-may-surreal-gown-in-lilac/dp/KATR-WD186/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_33</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WD85_V1.jpg</t>
-  </si>
-  <si>
-    <t>Camila Coelho</t>
-  </si>
-  <si>
-    <t>Reyna Maxi Dress</t>
-  </si>
-  <si>
-    <t>CA$ 352.49</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/camila-coelho-reyna-maxi-dress-in-pearl-white/dp/COEL-WD85/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_34</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WD96_V1.jpg</t>
-  </si>
-  <si>
-    <t>SNDYS</t>
-  </si>
-  <si>
-    <t>x REVOLVE Angel Strapless Midi Dress</t>
-  </si>
-  <si>
-    <t>CA$ 112.43</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/sndys-x-revolve-angel-strapless-midi-dress-in-olive/dp/SDYS-WD96/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_35</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD493_V1.jpg</t>
-  </si>
-  <si>
-    <t>Elder Dress</t>
-  </si>
-  <si>
-    <t>CA$ 382.93</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-elder-dress-in-white/dp/ELLI-WD493/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_36</t>
+    <t>https://www.revolve.com/elliatt-zayla-mini-dress-in-ivory-nude/dp/ELLI-WD662/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_37</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD637_V1.jpg</t>
@@ -599,10 +611,10 @@
     <t>Jasmine Maraya Dress</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bronx-and-banco-jasmine-maraya-dress-in-white-floral/dp/BROR-WD637/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_37</t>
+    <t>https://www.revolve.com/bronx-and-banco-jasmine-maraya-dress-in-white-floral/dp/BROR-WD637/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_38</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2195_V1.jpg</t>
@@ -614,10 +626,10 @@
     <t>CA$ 301.22</t>
   </si>
   <si>
-    <t>https://www.revolve.com/nbd-thom-midi-dress-in-black/dp/NBDR-WD2195/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_38</t>
+    <t>https://www.revolve.com/nbd-thom-midi-dress-in-black/dp/NBDR-WD2195/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD433_V1.jpg</t>
@@ -629,34 +641,22 @@
     <t>CA$ 360.50</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-walter-mini-dress-in-candy-pink/dp/NKAM-WD433/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_39</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD402_V1.jpg</t>
-  </si>
-  <si>
-    <t>Athena Gown</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-athena-gown-in-black/dp/NKAM-WD402/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolve_dress_40</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD650_V1.jpg</t>
-  </si>
-  <si>
-    <t>Vida Dress</t>
-  </si>
-  <si>
-    <t>CA$ 378.13</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-vida-dress-in-ivory/dp/ELLI-WD650/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/norma-kamali-walter-mini-dress-in-candy-pink/dp/NKAM-WD433/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_40</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1720_V1.jpg</t>
+  </si>
+  <si>
+    <t>x REVOLVE Gilda Gown</t>
+  </si>
+  <si>
+    <t>CA$ 429.40</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/amanda-uprichard-x-revolve-gilda-gown-in-crimson/dp/AMAN-WD1720/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -775,47 +775,47 @@
         <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>31</v>
@@ -875,27 +875,27 @@
         <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="E9" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="F9" t="s" s="0">
         <v>50</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="C10" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>42</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>54</v>
@@ -935,27 +935,27 @@
         <v>64</v>
       </c>
       <c r="C12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="E12" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="F12" t="s" s="0">
         <v>67</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="C13" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>20</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>71</v>
@@ -975,7 +975,7 @@
         <v>75</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>76</v>
@@ -1015,7 +1015,7 @@
         <v>86</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>87</v>
@@ -1035,7 +1035,7 @@
         <v>91</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>92</v>
@@ -1055,7 +1055,7 @@
         <v>96</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>97</v>
@@ -1095,67 +1095,67 @@
         <v>106</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>59</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
         <v>123</v>
@@ -1175,7 +1175,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>128</v>
@@ -1215,7 +1215,7 @@
         <v>137</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>138</v>
@@ -1241,118 +1241,118 @@
         <v>143</v>
       </c>
       <c r="E27" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>144</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="C28" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s" s="0">
+      <c r="E28" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="F28" t="s" s="0">
         <v>149</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="C29" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s" s="0">
+      <c r="E29" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="F29" t="s" s="0">
         <v>154</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="C30" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="D30" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="E30" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="F30" t="s" s="0">
         <v>160</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>161</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>162</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>163</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="F31" t="s" s="0">
         <v>165</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>166</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>167</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>168</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D32" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="F32" t="s" s="0">
         <v>170</v>
-      </c>
-      <c r="F32" t="s" s="0">
-        <v>171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>172</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>173</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>42</v>
@@ -1364,84 +1364,84 @@
         <v>44</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="C34" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="D34" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="E34" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="F34" t="s" s="0">
         <v>179</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>180</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="C35" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="D35" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="E35" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="F35" t="s" s="0">
         <v>185</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>186</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>187</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>188</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="E36" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="F36" t="s" s="0">
         <v>190</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="C37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C37" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s" s="0">
+      <c r="E37" t="s" s="0">
         <v>194</v>
-      </c>
-      <c r="E37" t="s" s="0">
-        <v>113</v>
       </c>
       <c r="F37" t="s" s="0">
         <v>195</v>
@@ -1455,53 +1455,53 @@
         <v>197</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s" s="0">
         <v>198</v>
       </c>
       <c r="E38" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F38" t="s" s="0">
         <v>199</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="C39" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="C39" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s" s="0">
+      <c r="E39" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="F39" t="s" s="0">
         <v>204</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="C40" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="C40" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D40" t="s" s="0">
+      <c r="E40" t="s" s="0">
         <v>208</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>77</v>
       </c>
       <c r="F40" t="s" s="0">
         <v>209</v>
@@ -1515,7 +1515,7 @@
         <v>211</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s" s="0">
         <v>212</v>

--- a/src/main/resources/womenRevolveDress.xlsx
+++ b/src/main/resources/womenRevolveDress.xlsx
@@ -53,6 +53,39 @@
     <t>women_revolvedress_2</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2408_V1.jpg</t>
+  </si>
+  <si>
+    <t>NBD</t>
+  </si>
+  <si>
+    <t>June Gown</t>
+  </si>
+  <si>
+    <t>CA$ 365.31</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nbd-june-gown-in-baby-blue/dp/NBDR-WD2408/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_3</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD395_V1.jpg</t>
+  </si>
+  <si>
+    <t>X REVOLVE Gwenyth Dress</t>
+  </si>
+  <si>
+    <t>CA$ 331.66</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-x-revolve-gwenyth-dress-in-orchid/dp/ELLI-WD395/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_4</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD845_V1.jpg</t>
   </si>
   <si>
@@ -65,25 +98,10 @@
     <t>CA$ 575.20</t>
   </si>
   <si>
-    <t>https://www.revolve.com/for-love-lemons-x-revolve-bustier-gown-in-black/dp/FORL-WD845/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_3</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD395_V1.jpg</t>
-  </si>
-  <si>
-    <t>X REVOLVE Gwenyth Dress</t>
-  </si>
-  <si>
-    <t>CA$ 331.66</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-x-revolve-gwenyth-dress-in-orchid/dp/ELLI-WD395/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_4</t>
+    <t>https://www.revolve.com/for-love-lemons-x-revolve-bustier-gown-in-black/dp/FORL-WD845/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_5</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD346_V1.jpg</t>
@@ -95,10 +113,10 @@
     <t>CA$ 302.82</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-cassini-dress-in-blue/dp/ELLI-WD346/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_5</t>
+    <t>https://www.revolve.com/elliatt-cassini-dress-in-blue/dp/ELLI-WD346/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_6</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SLEE-WD174_V1.jpg</t>
@@ -113,10 +131,10 @@
     <t>CA$ 761.06</t>
   </si>
   <si>
-    <t>https://www.revolve.com/sau-lee-preston-dress-in-egyptian-blue/dp/SLEE-WD174/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_6</t>
+    <t>https://www.revolve.com/sau-lee-preston-dress-in-egyptian-blue/dp/SLEE-WD174/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_7</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD848_V1.jpg</t>
@@ -131,58 +149,40 @@
     <t>CA$ 353.03</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-queen-gown-in-black/dp/AMAN-WD848/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_7</t>
+    <t>https://www.revolve.com/amanda-uprichard-queen-gown-in-black/dp/AMAN-WD848/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD193_V1.jpg</t>
+  </si>
+  <si>
+    <t>Katie May</t>
+  </si>
+  <si>
+    <t>Chasing Dawn Gown</t>
+  </si>
+  <si>
+    <t>CA$ 454.87</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/katie-may-chasing-dawn-gown-in-pink-daisy/dp/KATR-WD193/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_9</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD42_V1.jpg</t>
   </si>
   <si>
-    <t>Katie May</t>
-  </si>
-  <si>
     <t>Surreal Gown</t>
   </si>
   <si>
     <t>CA$ 339.46</t>
   </si>
   <si>
-    <t>https://www.revolve.com/katie-may-surreal-gown-in-black/dp/KATR-WD42/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_8</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD193_V1.jpg</t>
-  </si>
-  <si>
-    <t>Chasing Dawn Gown</t>
-  </si>
-  <si>
-    <t>CA$ 454.87</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/katie-may-chasing-dawn-gown-in-pink-daisy/dp/KATR-WD193/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_9</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2408_V1.jpg</t>
-  </si>
-  <si>
-    <t>NBD</t>
-  </si>
-  <si>
-    <t>June Gown</t>
-  </si>
-  <si>
-    <t>CA$ 365.31</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nbd-june-gown-in-baby-blue/dp/NBDR-WD2408/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/katie-may-surreal-gown-in-black/dp/KATR-WD42/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolvedress_10</t>
@@ -239,6 +239,24 @@
     <t>women_revolvedress_13</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LIDR-WD3_V1.jpg</t>
+  </si>
+  <si>
+    <t>L'IDEE</t>
+  </si>
+  <si>
+    <t>Renaissance Split Gown</t>
+  </si>
+  <si>
+    <t>CA$ 632.88</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lidee-renaissance-split-gown-in-light-pink/dp/LIDR-WD3/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_14</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD230_V1.jpg</t>
   </si>
   <si>
@@ -248,30 +266,27 @@
     <t>CA$ 424.59</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-x-revolve-strapless-fishtail-gown-in-orchid-pink/dp/NKAM-WD230/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_14</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LIDR-WD3_V1.jpg</t>
-  </si>
-  <si>
-    <t>L'IDEE</t>
-  </si>
-  <si>
-    <t>Renaissance Split Gown</t>
-  </si>
-  <si>
-    <t>CA$ 632.88</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lidee-renaissance-split-gown-in-light-pink/dp/LIDR-WD3/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/norma-kamali-x-revolve-strapless-fishtail-gown-in-orchid-pink/dp/NKAM-WD230/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolvedress_15</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD574_V1.jpg</t>
+  </si>
+  <si>
+    <t>Rosalind Dress</t>
+  </si>
+  <si>
+    <t>CA$ 592.82</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-rosalind-dress-in-multi/dp/ELLI-WD574/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_16</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1200_V1.jpg</t>
   </si>
   <si>
@@ -281,22 +296,7 @@
     <t>CA$ 323.16</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-mezcal-dress-in-ivory/dp/AMAN-WD1200/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_16</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD574_V1.jpg</t>
-  </si>
-  <si>
-    <t>Rosalind Dress</t>
-  </si>
-  <si>
-    <t>CA$ 592.82</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-rosalind-dress-in-multi/dp/ELLI-WD574/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/amanda-uprichard-mezcal-dress-in-ivory/dp/AMAN-WD1200/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolvedress_17</t>
@@ -482,6 +482,21 @@
     <t>women_revolvedress_29</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD662_V1.jpg</t>
+  </si>
+  <si>
+    <t>Zayla Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 656.91</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/elliatt-zayla-mini-dress-in-ivory-nude/dp/ELLI-WD662/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_30</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MELR-WD315_V1.jpg</t>
   </si>
   <si>
@@ -494,10 +509,10 @@
     <t>CA$ 349.29</t>
   </si>
   <si>
-    <t>https://www.revolve.com/michael-costello-x-revolve-india-midi-dress-in-periwinkle/dp/MELR-WD315/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_30</t>
+    <t>https://www.revolve.com/michael-costello-x-revolve-india-midi-dress-in-periwinkle/dp/MELR-WD315/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_31</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD555_V1.jpg</t>
@@ -509,10 +524,10 @@
     <t>CA$ 358.90</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-x-revolve-april-dress-in-ivory/dp/ELLI-WD555/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_31</t>
+    <t>https://www.revolve.com/elliatt-x-revolve-april-dress-in-ivory/dp/ELLI-WD555/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_32</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD918_V1.jpg</t>
@@ -524,19 +539,19 @@
     <t>CA$ 293.29</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-mckinnon-dress-in-white/dp/AMAN-WD918/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_32</t>
+    <t>https://www.revolve.com/amanda-uprichard-mckinnon-dress-in-white/dp/AMAN-WD918/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_33</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD186_V1.jpg</t>
   </si>
   <si>
-    <t>https://www.revolve.com/katie-may-surreal-gown-in-lilac/dp/KATR-WD186/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_33</t>
+    <t>https://www.revolve.com/katie-may-surreal-gown-in-lilac/dp/KATR-WD186/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_34</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WD85_V1.jpg</t>
@@ -551,10 +566,10 @@
     <t>CA$ 352.49</t>
   </si>
   <si>
-    <t>https://www.revolve.com/camila-coelho-reyna-maxi-dress-in-pearl-white/dp/COEL-WD85/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_34</t>
+    <t>https://www.revolve.com/camila-coelho-reyna-maxi-dress-in-pearl-white/dp/COEL-WD85/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_35</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WD96_V1.jpg</t>
@@ -569,10 +584,10 @@
     <t>CA$ 112.43</t>
   </si>
   <si>
-    <t>https://www.revolve.com/sndys-x-revolve-angel-strapless-midi-dress-in-olive/dp/SDYS-WD96/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_35</t>
+    <t>https://www.revolve.com/sndys-x-revolve-angel-strapless-midi-dress-in-olive/dp/SDYS-WD96/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD493_V1.jpg</t>
@@ -584,22 +599,7 @@
     <t>CA$ 382.93</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-elder-dress-in-white/dp/ELLI-WD493/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_36</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD662_V1.jpg</t>
-  </si>
-  <si>
-    <t>Zayla Mini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 656.91</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/elliatt-zayla-mini-dress-in-ivory-nude/dp/ELLI-WD662/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/elliatt-elder-dress-in-white/dp/ELLI-WD493/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolvedress_37</t>
@@ -795,27 +795,27 @@
         <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>31</v>
@@ -875,27 +875,27 @@
         <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>54</v>
@@ -935,7 +935,7 @@
         <v>64</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>65</v>
@@ -975,27 +975,27 @@
         <v>75</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>82</v>
@@ -1015,7 +1015,7 @@
         <v>86</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>87</v>
@@ -1035,7 +1035,7 @@
         <v>91</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>92</v>
@@ -1135,7 +1135,7 @@
         <v>117</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>118</v>
@@ -1175,7 +1175,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>128</v>
@@ -1195,7 +1195,7 @@
         <v>132</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s" s="0">
         <v>133</v>
@@ -1215,7 +1215,7 @@
         <v>137</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>138</v>
@@ -1235,7 +1235,7 @@
         <v>142</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>143</v>
@@ -1295,27 +1295,27 @@
         <v>156</v>
       </c>
       <c r="C30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="E30" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="F30" t="s" s="0">
         <v>159</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>160</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="C31" t="s" s="0">
         <v>162</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>163</v>
@@ -1335,7 +1335,7 @@
         <v>167</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
         <v>168</v>
@@ -1358,64 +1358,64 @@
         <v>42</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>178</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>179</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="C35" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="D35" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="E35" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="F35" t="s" s="0">
         <v>184</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>185</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="C36" t="s" s="0">
         <v>187</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
         <v>188</v>
@@ -1475,7 +1475,7 @@
         <v>201</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>202</v>
@@ -1515,7 +1515,7 @@
         <v>211</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s" s="0">
         <v>212</v>

--- a/src/main/resources/womenRevolveDress.xlsx
+++ b/src/main/resources/womenRevolveDress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="214">
   <si>
     <t>Id</t>
   </si>
@@ -188,6 +188,24 @@
     <t>women_revolvedress_10</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD230_V1.jpg</t>
+  </si>
+  <si>
+    <t>Norma Kamali</t>
+  </si>
+  <si>
+    <t>x REVOLVE Strapless Fishtail Gown</t>
+  </si>
+  <si>
+    <t>CA$ 424.59</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-x-revolve-strapless-fishtail-gown-in-orchid-pink/dp/NKAM-WD230/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_11</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD581_V1.jpg</t>
   </si>
   <si>
@@ -200,10 +218,10 @@
     <t>CA$ 1,113.55</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bronx-and-banco-jasmine-mini-dress-in-white-floral/dp/BROR-WD581/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_11</t>
+    <t>https://www.revolve.com/bronx-and-banco-jasmine-mini-dress-in-white-floral/dp/BROR-WD581/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_12</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FORL-WD867_V1.jpg</t>
@@ -215,28 +233,25 @@
     <t>CA$ 310.83</t>
   </si>
   <si>
-    <t>https://www.revolve.com/for-love-lemons-samira-mini-dress-in-white/dp/FORL-WD867/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_12</t>
+    <t>https://www.revolve.com/for-love-lemons-samira-mini-dress-in-white/dp/FORL-WD867/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_13</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD219_V1.jpg</t>
   </si>
   <si>
-    <t>Norma Kamali</t>
-  </si>
-  <si>
     <t>Diana Gown</t>
   </si>
   <si>
     <t>CA$ 344.48</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-diana-gown-in-celadon/dp/NKAM-WD219/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_13</t>
+    <t>https://www.revolve.com/norma-kamali-diana-gown-in-celadon/dp/NKAM-WD219/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_14</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LIDR-WD3_V1.jpg</t>
@@ -251,22 +266,7 @@
     <t>CA$ 632.88</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lidee-renaissance-split-gown-in-light-pink/dp/LIDR-WD3/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_14</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD230_V1.jpg</t>
-  </si>
-  <si>
-    <t>x REVOLVE Strapless Fishtail Gown</t>
-  </si>
-  <si>
-    <t>CA$ 424.59</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-x-revolve-strapless-fishtail-gown-in-orchid-pink/dp/NKAM-WD230/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/lidee-renaissance-split-gown-in-light-pink/dp/LIDR-WD3/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolvedress_15</t>
@@ -287,6 +287,21 @@
     <t>women_revolvedress_16</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD171_V1.jpg</t>
+  </si>
+  <si>
+    <t>Megan Mini Dress</t>
+  </si>
+  <si>
+    <t>CA$ 624.87</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bronx-and-banco-megan-mini-dress-in-blanc/dp/BROR-WD171/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_17</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1200_V1.jpg</t>
   </si>
   <si>
@@ -296,10 +311,10 @@
     <t>CA$ 323.16</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-mezcal-dress-in-ivory/dp/AMAN-WD1200/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_17</t>
+    <t>https://www.revolve.com/amanda-uprichard-mezcal-dress-in-ivory/dp/AMAN-WD1200/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_18</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD341_V1.jpg</t>
@@ -311,10 +326,10 @@
     <t>CA$ 240.33</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-cayla-side-drape-gown-in-black/dp/NKAM-WD341/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_18</t>
+    <t>https://www.revolve.com/norma-kamali-cayla-side-drape-gown-in-black/dp/NKAM-WD341/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_19</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD630_V1.jpg</t>
@@ -326,10 +341,22 @@
     <t>CA$ 1,249.74</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bronx-and-banco-jasmine-maxi-dress-in-gold-floral/dp/BROR-WD630/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_19</t>
+    <t>https://www.revolve.com/bronx-and-banco-jasmine-maxi-dress-in-gold-floral/dp/BROR-WD630/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD262_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 634.48</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bronx-and-banco-megan-mini-dress-in-rose/dp/BROR-WD262/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_21</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD438_V1.jpg</t>
@@ -344,10 +371,10 @@
     <t>CA$ 264.37</t>
   </si>
   <si>
-    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_20</t>
+    <t>https://www.revolve.com/show-me-your-mumu-outlaw-dress-in-tide/dp/SHOW-WD438/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_22</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD309_V1.jpg</t>
@@ -359,10 +386,10 @@
     <t>CA$ 1,201.67</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bronx-and-banco-florence-strapless-gown-in-gold/dp/BROR-WD309/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_21</t>
+    <t>https://www.revolve.com/bronx-and-banco-florence-strapless-gown-in-gold/dp/BROR-WD309/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_23</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SLEE-WD196_V1.jpg</t>
@@ -374,10 +401,10 @@
     <t>CA$ 793.10</t>
   </si>
   <si>
-    <t>https://www.revolve.com/sau-lee-priyanka-dress-in-hot-pink/dp/SLEE-WD196/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_22</t>
+    <t>https://www.revolve.com/sau-lee-priyanka-dress-in-hot-pink/dp/SLEE-WD196/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_24</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD221_V1.jpg</t>
@@ -389,10 +416,10 @@
     <t>CA$ 447.02</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-times-dress-in-blue-multi/dp/ELLI-WD221/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_23</t>
+    <t>https://www.revolve.com/elliatt-times-dress-in-blue-multi/dp/ELLI-WD221/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_25</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1949_V1.jpg</t>
@@ -404,10 +431,10 @@
     <t>CA$ 381.33</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-x-revolve-sabine-mini-dress-in-crimson/dp/AMAN-WD1949/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_24</t>
+    <t>https://www.revolve.com/amanda-uprichard-x-revolve-sabine-mini-dress-in-crimson/dp/AMAN-WD1949/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_26</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1193_V1.jpg</t>
@@ -419,10 +446,10 @@
     <t>CA$ 435.86</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-x-revolve-samba-gown-in-dark-green/dp/AMAN-WD1193/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_25</t>
+    <t>https://www.revolve.com/amanda-uprichard-x-revolve-samba-gown-in-dark-green/dp/AMAN-WD1193/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_27</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD103_V1.jpg</t>
@@ -434,10 +461,10 @@
     <t>CA$ 400.56</t>
   </si>
   <si>
-    <t>https://www.revolve.com/katie-may-damn-gina-dress-in-electric-pink/dp/KATR-WD103/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_26</t>
+    <t>https://www.revolve.com/katie-may-damn-gina-dress-in-electric-pink/dp/KATR-WD103/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_28</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD21_V1.jpg</t>
@@ -446,10 +473,10 @@
     <t>Mary Kate Gown</t>
   </si>
   <si>
-    <t>https://www.revolve.com/katie-may-mary-kate-gown-in-black/dp/KATR-WD21/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_27</t>
+    <t>https://www.revolve.com/katie-may-mary-kate-gown-in-black/dp/KATR-WD21/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_29</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD228_V1.jpg</t>
@@ -461,25 +488,10 @@
     <t>CA$ 280.39</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-x-revolve-v-neck-rectangle-gown-in-black/dp/NKAM-WD228/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_28</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD262_V1.jpg</t>
-  </si>
-  <si>
-    <t>Megan Mini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 634.48</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bronx-and-banco-megan-mini-dress-in-rose/dp/BROR-WD262/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_29</t>
+    <t>https://www.revolve.com/norma-kamali-x-revolve-v-neck-rectangle-gown-in-black/dp/NKAM-WD228/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_30</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD662_V1.jpg</t>
@@ -491,10 +503,10 @@
     <t>CA$ 656.91</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-zayla-mini-dress-in-ivory-nude/dp/ELLI-WD662/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_30</t>
+    <t>https://www.revolve.com/elliatt-zayla-mini-dress-in-ivory-nude/dp/ELLI-WD662/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_31</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MELR-WD315_V1.jpg</t>
@@ -509,10 +521,10 @@
     <t>CA$ 349.29</t>
   </si>
   <si>
-    <t>https://www.revolve.com/michael-costello-x-revolve-india-midi-dress-in-periwinkle/dp/MELR-WD315/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_31</t>
+    <t>https://www.revolve.com/michael-costello-x-revolve-india-midi-dress-in-periwinkle/dp/MELR-WD315/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_32</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD555_V1.jpg</t>
@@ -524,10 +536,10 @@
     <t>CA$ 358.90</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-x-revolve-april-dress-in-ivory/dp/ELLI-WD555/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_32</t>
+    <t>https://www.revolve.com/elliatt-x-revolve-april-dress-in-ivory/dp/ELLI-WD555/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_33</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD918_V1.jpg</t>
@@ -539,19 +551,19 @@
     <t>CA$ 293.29</t>
   </si>
   <si>
-    <t>https://www.revolve.com/amanda-uprichard-mckinnon-dress-in-white/dp/AMAN-WD918/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_33</t>
+    <t>https://www.revolve.com/amanda-uprichard-mckinnon-dress-in-white/dp/AMAN-WD918/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_34</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/KATR-WD186_V1.jpg</t>
   </si>
   <si>
-    <t>https://www.revolve.com/katie-may-surreal-gown-in-lilac/dp/KATR-WD186/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_34</t>
+    <t>https://www.revolve.com/katie-may-surreal-gown-in-lilac/dp/KATR-WD186/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_35</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WD85_V1.jpg</t>
@@ -566,10 +578,10 @@
     <t>CA$ 352.49</t>
   </si>
   <si>
-    <t>https://www.revolve.com/camila-coelho-reyna-maxi-dress-in-pearl-white/dp/COEL-WD85/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_35</t>
+    <t>https://www.revolve.com/camila-coelho-reyna-maxi-dress-in-pearl-white/dp/COEL-WD85/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WD96_V1.jpg</t>
@@ -584,10 +596,10 @@
     <t>CA$ 112.43</t>
   </si>
   <si>
-    <t>https://www.revolve.com/sndys-x-revolve-angel-strapless-midi-dress-in-olive/dp/SDYS-WD96/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_36</t>
+    <t>https://www.revolve.com/sndys-x-revolve-angel-strapless-midi-dress-in-olive/dp/SDYS-WD96/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_37</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ELLI-WD493_V1.jpg</t>
@@ -599,10 +611,10 @@
     <t>CA$ 382.93</t>
   </si>
   <si>
-    <t>https://www.revolve.com/elliatt-elder-dress-in-white/dp/ELLI-WD493/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_37</t>
+    <t>https://www.revolve.com/elliatt-elder-dress-in-white/dp/ELLI-WD493/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_38</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BROR-WD637_V1.jpg</t>
@@ -611,10 +623,10 @@
     <t>Jasmine Maraya Dress</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bronx-and-banco-jasmine-maraya-dress-in-white-floral/dp/BROR-WD637/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_38</t>
+    <t>https://www.revolve.com/bronx-and-banco-jasmine-maraya-dress-in-white-floral/dp/BROR-WD637/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolvedress_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2195_V1.jpg</t>
@@ -626,37 +638,22 @@
     <t>CA$ 301.22</t>
   </si>
   <si>
-    <t>https://www.revolve.com/nbd-thom-midi-dress-in-black/dp/NBDR-WD2195/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>women_revolvedress_39</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WD433_V1.jpg</t>
-  </si>
-  <si>
-    <t>Walter Mini Dress</t>
-  </si>
-  <si>
-    <t>CA$ 360.50</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-walter-mini-dress-in-candy-pink/dp/NKAM-WD433/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/nbd-thom-midi-dress-in-black/dp/NBDR-WD2195/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>women_revolvedress_40</t>
   </si>
   <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AMAN-WD1720_V1.jpg</t>
-  </si>
-  <si>
-    <t>x REVOLVE Gilda Gown</t>
-  </si>
-  <si>
-    <t>CA$ 429.40</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/amanda-uprichard-x-revolve-gilda-gown-in-crimson/dp/AMAN-WD1720/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2879_V1.jpg</t>
+  </si>
+  <si>
+    <t>Divya Maxi Dress</t>
+  </si>
+  <si>
+    <t>CA$ 557.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nbd-divya-maxi-dress-in-patchwork-multi/dp/NBDR-WD2879/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -935,27 +932,27 @@
         <v>64</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>71</v>
@@ -975,27 +972,27 @@
         <v>75</v>
       </c>
       <c r="C14" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="E14" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="F14" t="s" s="0">
         <v>78</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="C15" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>82</v>
@@ -1035,7 +1032,7 @@
         <v>91</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>92</v>
@@ -1055,7 +1052,7 @@
         <v>96</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>97</v>
@@ -1095,153 +1092,153 @@
         <v>106</v>
       </c>
       <c r="C20" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="E20" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="F20" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="C21" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s" s="0">
+      <c r="F21" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="D22" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s" s="0">
+      <c r="E22" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="F22" t="s" s="0">
         <v>119</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="C23" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="C23" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s" s="0">
+      <c r="E23" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="F23" t="s" s="0">
         <v>124</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="C24" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="C24" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s" s="0">
+      <c r="E24" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="F24" t="s" s="0">
         <v>129</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="C25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="C25" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s" s="0">
+      <c r="E25" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="F25" t="s" s="0">
         <v>134</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="C26" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s" s="0">
+      <c r="E26" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="F26" t="s" s="0">
         <v>139</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>140</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="C27" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="C27" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s" s="0">
+      <c r="E27" t="s" s="0">
         <v>143</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>139</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>144</v>
@@ -1255,7 +1252,7 @@
         <v>146</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s" s="0">
         <v>147</v>
@@ -1275,193 +1272,193 @@
         <v>151</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s" s="0">
         <v>152</v>
       </c>
       <c r="E29" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s" s="0">
         <v>153</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>154</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="C30" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s" s="0">
+      <c r="E30" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="F30" t="s" s="0">
         <v>158</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>159</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="C31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="E31" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="F31" t="s" s="0">
         <v>163</v>
-      </c>
-      <c r="E31" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="D32" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="C32" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s" s="0">
+      <c r="E32" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="F32" t="s" s="0">
         <v>169</v>
-      </c>
-      <c r="F32" t="s" s="0">
-        <v>170</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="C33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="C33" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D33" t="s" s="0">
+      <c r="E33" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="F33" t="s" s="0">
         <v>174</v>
-      </c>
-      <c r="F33" t="s" s="0">
-        <v>175</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="C34" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="C34" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>54</v>
-      </c>
       <c r="E34" t="s" s="0">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s" s="0">
         <v>182</v>
-      </c>
-      <c r="E35" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>184</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="D36" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="E36" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="F36" t="s" s="0">
         <v>188</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>190</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="D37" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C37" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s" s="0">
+      <c r="E37" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="F37" t="s" s="0">
         <v>194</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>195</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="C38" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C38" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="D38" t="s" s="0">
+      <c r="E38" t="s" s="0">
         <v>198</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>114</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>199</v>
@@ -1475,56 +1472,56 @@
         <v>201</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>202</v>
       </c>
       <c r="E39" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="F39" t="s" s="0">
         <v>203</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>204</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="C40" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="C40" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s" s="0">
+      <c r="E40" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="F40" t="s" s="0">
         <v>208</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>209</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="C41" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="C41" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D41" t="s" s="0">
+      <c r="E41" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="E41" t="s" s="0">
+      <c r="F41" t="s" s="0">
         <v>213</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
